--- a/theAnalyticsEdge/Unit09_Integer_Optimization/PfizerReps.xlsx
+++ b/theAnalyticsEdge/Unit09_Integer_Optimization/PfizerReps.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -682,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="23">
-        <v>2.302040288378969E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="23">
-        <v>0.9769795971162103</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f>SUM(I6:L6)</f>
@@ -841,14 +841,14 @@
         <v>0</v>
       </c>
       <c r="K7" s="23">
-        <v>1.6653667052248567E-2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="23">
-        <v>0.98334633294775131</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7:M27" si="0">SUM(I7:L7)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -919,20 +919,20 @@
         <v>1</v>
       </c>
       <c r="I9" s="23">
-        <v>0.97831017264042808</v>
+        <v>0</v>
       </c>
       <c r="J9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="23">
-        <v>2.1689827359571853E-2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="23">
         <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -955,20 +955,20 @@
         <v>1</v>
       </c>
       <c r="I10" s="23">
-        <v>0.14307273677875693</v>
+        <v>0</v>
       </c>
       <c r="J10" s="23">
-        <v>0.13435568944871842</v>
+        <v>0</v>
       </c>
       <c r="K10" s="23">
-        <v>0.15650726179569169</v>
+        <v>1</v>
       </c>
       <c r="L10" s="23">
-        <v>0.14307273677875693</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.57700842480192394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -991,20 +991,20 @@
         <v>1</v>
       </c>
       <c r="I11" s="23">
-        <v>0.14307273677875693</v>
+        <v>1</v>
       </c>
       <c r="J11" s="23">
-        <v>0.13081874092981829</v>
+        <v>0</v>
       </c>
       <c r="K11" s="23">
-        <v>0.16195833366731943</v>
+        <v>0</v>
       </c>
       <c r="L11" s="23">
-        <v>0.14307273677875693</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>0.57892254815465161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1029,20 +1029,20 @@
         <v>1</v>
       </c>
       <c r="I12" s="23">
-        <v>0.14307273677875693</v>
+        <v>1</v>
       </c>
       <c r="J12" s="23">
-        <v>0.13669508884487816</v>
+        <v>0</v>
       </c>
       <c r="K12" s="23">
-        <v>0.15290182749170805</v>
+        <v>0</v>
       </c>
       <c r="L12" s="23">
-        <v>3.5230238411529571E-2</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>0.46789989152687272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1069,13 +1069,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="23">
         <v>0</v>
       </c>
       <c r="K13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="23">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="23">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="23">
-        <v>0.99194206920766892</v>
+        <v>1</v>
       </c>
       <c r="K16" s="23">
         <v>0</v>
       </c>
       <c r="L16" s="23">
-        <v>8.0579307923311014E-3</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="23">
-        <v>0.99231340247809086</v>
+        <v>1</v>
       </c>
       <c r="K17" s="23">
         <v>0</v>
       </c>
       <c r="L17" s="23">
-        <v>7.6865975219091425E-3</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="23">
-        <v>0.9909487533490775</v>
+        <v>1</v>
       </c>
       <c r="K18" s="23">
         <v>0</v>
       </c>
       <c r="L18" s="23">
-        <v>9.0512466509224902E-3</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
@@ -1309,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="23">
-        <v>0.92409020599829994</v>
+        <v>0</v>
       </c>
       <c r="K19" s="23">
-        <v>2.88077669503333E-2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="23">
-        <v>4.7102027051366735E-2</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
@@ -1349,13 +1349,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="23">
-        <v>0.94112556782631684</v>
+        <v>0</v>
       </c>
       <c r="J20" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="23">
-        <v>5.8874432173683239E-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="23">
         <v>0</v>
@@ -1389,20 +1389,20 @@
         <v>1</v>
       </c>
       <c r="I21" s="23">
-        <v>0.41531540237198161</v>
+        <v>0</v>
       </c>
       <c r="J21" s="23">
-        <v>0.24424401596028791</v>
+        <v>0</v>
       </c>
       <c r="K21" s="23">
-        <v>0.19736884488897341</v>
+        <v>0</v>
       </c>
       <c r="L21" s="23">
-        <v>0.14307273677875693</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>1.0000009999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="23">
-        <v>0.98992681210222999</v>
+        <v>0</v>
       </c>
       <c r="K23" s="23">
-        <v>1.0073187897770019E-2</v>
+        <v>1</v>
       </c>
       <c r="L23" s="23">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="23">
-        <v>0.79247478595797938</v>
+        <v>0</v>
       </c>
       <c r="J24" s="23">
-        <v>2.5547724993391151E-2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="23">
-        <v>5.0152724825148286E-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="23">
-        <v>0.13182476422348116</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
@@ -1549,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="23">
-        <v>0.79220981167003901</v>
+        <v>0</v>
       </c>
       <c r="J25" s="23">
-        <v>2.5974758496458108E-2</v>
+        <v>0</v>
       </c>
       <c r="K25" s="23">
-        <v>4.9494589754998097E-2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="23">
-        <v>0.13232084007850475</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -1589,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="23">
         <v>0</v>
       </c>
       <c r="K26" s="23">
-        <v>2.4293750476487897E-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="23">
-        <v>0.97570624952351215</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="23">
-        <v>3.6211710790728456E-2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="23">
-        <v>0.96378828920927151</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F30" s="2">
         <f>SUMPRODUCT($B$14:$B$35, I6:I27)</f>
-        <v>0.98998485518692714</v>
+        <v>1.1881999999999999</v>
       </c>
       <c r="G30" s="2">
         <f>SUMPRODUCT(E6:E27, I6:I27)</f>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="F31" s="2">
         <f>SUMPRODUCT($B$14:$B$35, J6:J27)</f>
-        <v>1.2000000019469723</v>
+        <v>1.0831</v>
       </c>
       <c r="G31" s="2">
         <f>SUMPRODUCT(F6:F27, J6:J27)</f>
-        <v>1.687562830775782</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="F32" s="2">
         <f>SUMPRODUCT($B$14:$B$35, K6:K27)</f>
-        <v>0.73757987923521229</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="G32" s="2">
         <f>SUMPRODUCT(G6:G27, K6:K27)</f>
-        <v>1.7805662952217085</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1751,18 +1751,18 @@
       </c>
       <c r="D33" s="2">
         <f>SUMPRODUCT(B40:E61, I6:L27)</f>
-        <v>197.98713800655796</v>
+        <v>189.07</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
       </c>
       <c r="F33" s="2">
         <f>SUMPRODUCT($B$14:$B$35, L6:L27)</f>
-        <v>0.94057923312409897</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="G33" s="2">
         <f>SUMPRODUCT(H6:H27, L6:L27)</f>
-        <v>0.53634625076432974</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2"/>
     </row>

--- a/theAnalyticsEdge/Unit09_Integer_Optimization/PfizerReps.xlsx
+++ b/theAnalyticsEdge/Unit09_Integer_Optimization/PfizerReps.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="23">
-        <v>0</v>
+        <v>1.1953725614553042E-3</v>
       </c>
       <c r="L6" s="23">
-        <v>1</v>
+        <v>0.9988046274385447</v>
       </c>
       <c r="M6">
         <f>SUM(I6:L6)</f>
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="23">
-        <v>0</v>
+        <v>6.8501680843803233E-4</v>
       </c>
       <c r="L7" s="23">
-        <v>1</v>
+        <v>0.99931498319156198</v>
       </c>
       <c r="M7">
         <f t="shared" ref="M7:M27" si="0">SUM(I7:L7)</f>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="23">
-        <v>0</v>
+        <v>2.583499794238856E-5</v>
       </c>
       <c r="K8" s="23">
         <v>0</v>
       </c>
       <c r="L8" s="23">
-        <v>1</v>
+        <v>0.9999741650020576</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
@@ -919,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="23">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="23">
-        <v>0</v>
+        <v>0.99945269275930915</v>
       </c>
       <c r="J13" s="23">
         <v>0</v>
       </c>
       <c r="K13" s="23">
-        <v>1</v>
+        <v>5.4730724069092349E-4</v>
       </c>
       <c r="L13" s="23">
         <v>0</v>
@@ -1149,20 +1149,20 @@
         <v>1</v>
       </c>
       <c r="I15" s="23">
-        <v>0</v>
+        <v>1.2099504642789437E-2</v>
       </c>
       <c r="J15" s="23">
-        <v>1</v>
+        <v>5.8967984202720333E-3</v>
       </c>
       <c r="K15" s="23">
-        <v>0</v>
+        <v>7.373346537652369E-3</v>
       </c>
       <c r="L15" s="23">
         <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5369649600713841E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="23">
-        <v>1</v>
+        <v>0.99997734678771388</v>
       </c>
       <c r="K16" s="23">
         <v>0</v>
       </c>
       <c r="L16" s="23">
-        <v>0</v>
+        <v>2.2653212286140101E-5</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
@@ -1232,13 +1232,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="23">
-        <v>1</v>
+        <v>0.99997839071469963</v>
       </c>
       <c r="K17" s="23">
         <v>0</v>
       </c>
       <c r="L17" s="23">
-        <v>0</v>
+        <v>2.1609285300346047E-5</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="23">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="23">
         <v>0</v>
@@ -1395,14 +1395,14 @@
         <v>0</v>
       </c>
       <c r="K21" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="23">
         <v>0</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="23">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="23">
-        <v>0</v>
+        <v>0.99979017727871</v>
       </c>
       <c r="K23" s="23">
-        <v>1</v>
+        <v>2.0982272129003673E-4</v>
       </c>
       <c r="L23" s="23">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="I24" s="23">
-        <v>0</v>
+        <v>0.99395069613162124</v>
       </c>
       <c r="J24" s="23">
-        <v>0</v>
+        <v>9.139360331682209E-5</v>
       </c>
       <c r="K24" s="23">
-        <v>0</v>
+        <v>6.79810271061444E-4</v>
       </c>
       <c r="L24" s="23">
-        <v>1</v>
+        <v>5.2780999940004857E-3</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
@@ -1549,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="I25" s="23">
-        <v>0</v>
+        <v>0.99394979922558935</v>
       </c>
       <c r="J25" s="23">
-        <v>0</v>
+        <v>9.2594120031048077E-5</v>
       </c>
       <c r="K25" s="23">
-        <v>0</v>
+        <v>6.5273914108982943E-4</v>
       </c>
       <c r="L25" s="23">
-        <v>1</v>
+        <v>5.3048675132898069E-3</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
@@ -1589,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="I26" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="23">
         <v>0</v>
       </c>
       <c r="K26" s="23">
-        <v>0</v>
+        <v>9.9927705797064805E-4</v>
       </c>
       <c r="L26" s="23">
-        <v>0</v>
+        <v>0.99900072294202935</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="23">
-        <v>0</v>
+        <v>1.4894996084720254E-3</v>
       </c>
       <c r="L27" s="23">
-        <v>1</v>
+        <v>0.998510500391528</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F30" s="2">
         <f>SUMPRODUCT($B$14:$B$35, I6:I27)</f>
-        <v>1.1881999999999999</v>
+        <v>1.0625749177400965</v>
       </c>
       <c r="G30" s="2">
         <f>SUMPRODUCT(E6:E27, I6:I27)</f>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F31" s="2">
         <f>SUMPRODUCT($B$14:$B$35, J6:J27)</f>
-        <v>1.0831</v>
+        <v>1.2000000000000204</v>
       </c>
       <c r="G31" s="2">
         <f>SUMPRODUCT(F6:F27, J6:J27)</f>
@@ -1731,11 +1731,11 @@
       </c>
       <c r="F32" s="2">
         <f>SUMPRODUCT($B$14:$B$35, K6:K27)</f>
-        <v>0.51219999999999999</v>
+        <v>0.68787930164358202</v>
       </c>
       <c r="G32" s="2">
         <f>SUMPRODUCT(G6:G27, K6:K27)</f>
-        <v>2</v>
+        <v>1.0136223692268305</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1751,18 +1751,18 @@
       </c>
       <c r="D33" s="2">
         <f>SUMPRODUCT(B40:E61, I6:L27)</f>
-        <v>189.07</v>
+        <v>168.33954754295226</v>
       </c>
       <c r="E33" s="2">
         <v>4</v>
       </c>
       <c r="F33" s="2">
         <f>SUMPRODUCT($B$14:$B$35, L6:L27)</f>
-        <v>0.83699999999999997</v>
+        <v>0.80306176500032167</v>
       </c>
       <c r="G33" s="2">
         <f>SUMPRODUCT(H6:H27, L6:L27)</f>
-        <v>0</v>
+        <v>4.4262497586486152E-5</v>
       </c>
       <c r="H33" s="2"/>
     </row>
